--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2039426.54671617</v>
+        <v>-2042232.492771361</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15527249.68786176</v>
+        <v>15527249.68786177</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>48.01726402069039</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0588908408161</v>
+        <v>414.0588908408162</v>
       </c>
       <c r="H2" t="n">
         <v>326.7362573623985</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546395</v>
+        <v>71.73533428546396</v>
       </c>
       <c r="S2" t="n">
-        <v>112.7606378306603</v>
+        <v>180.675913495203</v>
       </c>
       <c r="T2" t="n">
-        <v>217.6509107473003</v>
+        <v>3.189980583435897</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>178.0560805424275</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -741,10 +741,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>44.4102851102525</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -756,7 +756,7 @@
         <v>105.8079545549729</v>
       </c>
       <c r="I3" t="n">
-        <v>66.48301159802713</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780748</v>
+        <v>58.83742364780749</v>
       </c>
       <c r="S3" t="n">
         <v>159.3214913575833</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>130.2148064304096</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.5911416622493</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.44160735593294</v>
       </c>
       <c r="R4" t="n">
-        <v>152.206074479934</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>195.5709962784676</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,7 +911,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>258.5653316234992</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>195.3305829426957</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>87.1050900026125</v>
+        <v>108.0058706044471</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
         <v>17.69584188176898</v>
@@ -1102,10 +1102,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>178.5985974269439</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>22.40310697529898</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>280.1811822897852</v>
+        <v>334.7407466409434</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,10 +1190,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>58.10578484348881</v>
+        <v>126.3625806258466</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,10 +1306,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>185.0663491738889</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1813,13 +1813,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>113.9549918517058</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>147.053668106558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2764,7 +2764,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.334921149268</v>
+        <v>1164.832634259682</v>
       </c>
       <c r="C2" t="n">
-        <v>844.3724042088566</v>
+        <v>795.8701173192704</v>
       </c>
       <c r="D2" t="n">
-        <v>795.8701173192703</v>
+        <v>795.8701173192704</v>
       </c>
       <c r="E2" t="n">
-        <v>795.8701173192703</v>
+        <v>795.8701173192704</v>
       </c>
       <c r="F2" t="n">
-        <v>795.8701173192703</v>
+        <v>795.8701173192704</v>
       </c>
       <c r="G2" t="n">
         <v>377.6288134396581</v>
@@ -4331,10 +4331,10 @@
         <v>140.2766257379399</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332733</v>
+        <v>399.9313734332734</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349387</v>
+        <v>774.3326757349389</v>
       </c>
       <c r="M2" t="n">
         <v>1207.532809426325</v>
@@ -4355,25 +4355,25 @@
         <v>2307.149558442107</v>
       </c>
       <c r="S2" t="n">
-        <v>2193.249924269723</v>
+        <v>2124.64863571968</v>
       </c>
       <c r="T2" t="n">
-        <v>1973.40051947447</v>
+        <v>2121.426433110149</v>
       </c>
       <c r="U2" t="n">
-        <v>1973.40051947447</v>
+        <v>2121.426433110149</v>
       </c>
       <c r="V2" t="n">
-        <v>1973.40051947447</v>
+        <v>2121.426433110149</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.40051947447</v>
+        <v>1941.571806299616</v>
       </c>
       <c r="X2" t="n">
-        <v>1599.93476121339</v>
+        <v>1941.571806299616</v>
       </c>
       <c r="Y2" t="n">
-        <v>1599.93476121339</v>
+        <v>1551.432474323804</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8415070889288</v>
+        <v>658.3739591012375</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3884778078018</v>
+        <v>483.9209298201105</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4540681465505</v>
+        <v>483.9209298201105</v>
       </c>
       <c r="E3" t="n">
-        <v>506.216613141095</v>
+        <v>439.0620559713706</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6820551679799</v>
+        <v>292.5274979982555</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6234687837</v>
+        <v>154.4689116139756</v>
       </c>
       <c r="H3" t="n">
-        <v>114.7467470110001</v>
+        <v>47.59218984127575</v>
       </c>
       <c r="I3" t="n">
         <v>47.59218984127575</v>
@@ -4410,10 +4410,10 @@
         <v>109.1010252263744</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974761</v>
+        <v>340.850264997476</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8701137890712</v>
+        <v>713.8701137890711</v>
       </c>
       <c r="M3" t="n">
         <v>1201.145904759555</v>
@@ -4446,13 +4446,13 @@
         <v>1496.438451819994</v>
       </c>
       <c r="W3" t="n">
-        <v>1364.90834431453</v>
+        <v>1242.201095091792</v>
       </c>
       <c r="X3" t="n">
-        <v>1157.056844108997</v>
+        <v>1034.349594886259</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.056844108997</v>
+        <v>826.5892961213056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1807.526942457225</v>
+        <v>1937.328440659782</v>
       </c>
       <c r="C4" t="n">
-        <v>1807.526942457225</v>
+        <v>1937.328440659782</v>
       </c>
       <c r="D4" t="n">
-        <v>1807.526942457225</v>
+        <v>1937.328440659782</v>
       </c>
       <c r="E4" t="n">
-        <v>1807.526942457225</v>
+        <v>1937.328440659782</v>
       </c>
       <c r="F4" t="n">
-        <v>1807.526942457225</v>
+        <v>1861.983853122157</v>
       </c>
       <c r="G4" t="n">
-        <v>1807.526942457225</v>
+        <v>1861.983853122157</v>
       </c>
       <c r="H4" t="n">
-        <v>1807.526942457225</v>
+        <v>1861.983853122157</v>
       </c>
       <c r="I4" t="n">
-        <v>1807.526942457225</v>
+        <v>1861.983853122157</v>
       </c>
       <c r="J4" t="n">
         <v>1807.526942457225</v>
@@ -4507,31 +4507,31 @@
         <v>2379.609492063787</v>
       </c>
       <c r="Q4" t="n">
-        <v>2379.609492063787</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="R4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="S4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="T4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="U4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="V4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="W4" t="n">
-        <v>2225.865982488097</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="X4" t="n">
-        <v>2028.319521600755</v>
+        <v>2339.769484633552</v>
       </c>
       <c r="Y4" t="n">
-        <v>1807.526942457225</v>
+        <v>2118.976905490022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.557135513264</v>
+        <v>1588.296537226186</v>
       </c>
       <c r="C5" t="n">
-        <v>1537.557135513264</v>
+        <v>1219.334020285774</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.291436906514</v>
+        <v>861.0683216790234</v>
       </c>
       <c r="E5" t="n">
-        <v>793.5031843082697</v>
+        <v>475.2800690807791</v>
       </c>
       <c r="F5" t="n">
-        <v>382.5172795186621</v>
+        <v>64.29416429117158</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>239.8866855817394</v>
@@ -4571,19 +4571,19 @@
         <v>643.3537986017849</v>
       </c>
       <c r="L5" t="n">
-        <v>1196.167056847984</v>
+        <v>782.6824544430381</v>
       </c>
       <c r="M5" t="n">
-        <v>1523.345083077018</v>
+        <v>969.3818672684457</v>
       </c>
       <c r="N5" t="n">
-        <v>1717.679295969001</v>
+        <v>1596.689535328292</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2098.040162039265</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4601,16 +4601,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.162225750156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2301.162225750156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1927.696467489076</v>
+        <v>2365.035709266119</v>
       </c>
       <c r="Y5" t="n">
-        <v>1537.557135513264</v>
+        <v>1974.896377290307</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>914.5278549835443</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>740.0748257024173</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>591.1404160411661</v>
       </c>
       <c r="E6" t="n">
         <v>482.0435770467751</v>
@@ -4638,58 +4638,58 @@
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>97.15164357768661</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
         <v>380.675190873813</v>
       </c>
       <c r="L6" t="n">
-        <v>885.0367307399315</v>
+        <v>517.904788889507</v>
       </c>
       <c r="M6" t="n">
-        <v>1113.966807411052</v>
+        <v>1152.083772668545</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.14579119009</v>
+        <v>1786.262756447584</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2222.936244812388</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2412.87253926279</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2215.883243422878</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>1987.744455934043</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1752.592347702301</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1498.354990974099</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1290.503490768566</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1082.743192003612</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.8605983355761</v>
+        <v>488.4360900333429</v>
       </c>
       <c r="C7" t="n">
-        <v>363.9244154076692</v>
+        <v>488.4360900333429</v>
       </c>
       <c r="D7" t="n">
-        <v>363.9244154076692</v>
+        <v>488.4360900333429</v>
       </c>
       <c r="E7" t="n">
-        <v>216.0113218252761</v>
+        <v>340.5229964509498</v>
       </c>
       <c r="F7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="G7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="H7" t="n">
-        <v>69.12137432736571</v>
+        <v>193.6330489530394</v>
       </c>
       <c r="I7" t="n">
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4750,25 +4750,25 @@
         <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>713.2632219991558</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>532.8605983355761</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="U7" t="n">
-        <v>532.8605983355761</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="V7" t="n">
-        <v>532.8605983355761</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="W7" t="n">
-        <v>532.8605983355761</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="X7" t="n">
-        <v>532.8605983355761</v>
+        <v>692.7139558487331</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.8605983355761</v>
+        <v>670.0845548635826</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042.715325395395</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="C8" t="n">
-        <v>1042.715325395395</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="D8" t="n">
-        <v>759.7040301531877</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549434</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656475</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="X8" t="n">
-        <v>1042.715325395395</v>
+        <v>1601.847660535549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1042.715325395395</v>
+        <v>1601.847660535549</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429757</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744474</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>827.3230491102485</v>
+        <v>641.675262669166</v>
       </c>
       <c r="C10" t="n">
-        <v>827.3230491102485</v>
+        <v>641.675262669166</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253779</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1048.115628253779</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1048.115628253779</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X10" t="n">
-        <v>1048.115628253779</v>
+        <v>641.675262669166</v>
       </c>
       <c r="Y10" t="n">
-        <v>827.3230491102485</v>
+        <v>641.675262669166</v>
       </c>
     </row>
     <row r="11">
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,19 +5303,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.811327457202</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5543,19 +5543,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5601,19 +5601,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429803</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5969,16 +5969,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6698,10 +6698,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,7 +6856,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6880,28 +6880,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.3734194384019</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,13 +7357,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,16 +7430,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,10 +7609,10 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7649,16 +7649,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150025</v>
@@ -7792,10 +7792,10 @@
         <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547835</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8219,22 +8219,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>141.8975892965925</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>334.5268700949632</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8298,19 +8298,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>49.93206092577327</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933068</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>279.9607835313575</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,28 +8532,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>306.6657775999926</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22598,10 +22598,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>214.4609301638644</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.2931070357591</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>67.07129414993878</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>202.6501519448735</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>117.6820817884491</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1213480.677673801</v>
+        <v>1213480.677673802</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67700.85635772868</v>
+        <v>67700.85635772863</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642833</v>
@@ -26323,37 +26323,37 @@
         <v>80714.65996900061</v>
       </c>
       <c r="F2" t="n">
+        <v>80714.6599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>80714.65996900061</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.65996900066</v>
       </c>
-      <c r="G2" t="n">
-        <v>80714.6599690006</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>80714.65996900063</v>
+      </c>
+      <c r="J2" t="n">
         <v>80714.65996900064</v>
       </c>
-      <c r="I2" t="n">
-        <v>80714.65996900058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>80714.65996900058</v>
-      </c>
       <c r="K2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="L2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="M2" t="n">
+        <v>82104.17698642833</v>
+      </c>
+      <c r="N2" t="n">
         <v>82104.17698642836</v>
       </c>
-      <c r="M2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="N2" t="n">
-        <v>82104.1769864284</v>
-      </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642831</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>273432.6815691286</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>155652.6364853844</v>
+        <v>155652.6364853843</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955459</v>
+        <v>11757.20312955461</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363173</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.850444021568233e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
+        <v>7507.368461719678</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="G4" t="n">
-        <v>7507.368461719638</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7507.368461719694</v>
-      </c>
       <c r="I4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="L4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="M4" t="n">
         <v>15498.22772481315</v>
       </c>
-      <c r="M4" t="n">
-        <v>15498.22772481313</v>
-      </c>
       <c r="N4" t="n">
-        <v>15498.22772481313</v>
+        <v>15498.22772481315</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481319</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>76542.73383253248</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685046.2860219141</v>
+        <v>-685406.3690376315</v>
       </c>
       <c r="C6" t="n">
         <v>-475154.0760219048</v>
       </c>
       <c r="D6" t="n">
-        <v>-435632.4685231873</v>
+        <v>-435632.4685231872</v>
       </c>
       <c r="E6" t="n">
-        <v>-535400.6799411719</v>
+        <v>-535435.4178666078</v>
       </c>
       <c r="F6" t="n">
-        <v>-27915.23831662608</v>
+        <v>-27949.97624206188</v>
       </c>
       <c r="G6" t="n">
-        <v>-27915.23831662616</v>
+        <v>-27949.97624206188</v>
       </c>
       <c r="H6" t="n">
-        <v>-27915.23831662617</v>
+        <v>-27949.97624206182</v>
       </c>
       <c r="I6" t="n">
-        <v>-27915.23831662622</v>
+        <v>-27949.97624206195</v>
       </c>
       <c r="J6" t="n">
-        <v>-183567.8748020106</v>
+        <v>-183602.6127274462</v>
       </c>
       <c r="K6" t="n">
-        <v>-39672.44144618076</v>
+        <v>-39707.17937161649</v>
       </c>
       <c r="L6" t="n">
-        <v>-55985.88458593197</v>
+        <v>-55985.88458593191</v>
       </c>
       <c r="M6" t="n">
-        <v>-169165.4603212268</v>
+        <v>-169165.4603212269</v>
       </c>
       <c r="N6" t="n">
-        <v>-36558.16659230013</v>
+        <v>-36558.1665923002</v>
       </c>
       <c r="O6" t="n">
-        <v>-36558.16659230019</v>
+        <v>-36558.1665923002</v>
       </c>
       <c r="P6" t="n">
-        <v>-36558.16659230019</v>
+        <v>-36558.16659230032</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>594.9023730159469</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.563055026960292e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>309.4068602368308</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012342</v>
+        <v>284.0692401012343</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>594.9023730159469</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409197</v>
+        <v>45.68245908409187</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159468</v>
+        <v>594.9023730159469</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409199</v>
+        <v>45.68245908409187</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>594.9023730159469</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409197</v>
+        <v>45.68245908409187</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>67.9152756645427</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.246145173891</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>171.1848881749855</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27461,10 +27461,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>113.2347953451484</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.48301159802713</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>121.48017673051</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.82990636068195</v>
       </c>
       <c r="G4" t="n">
         <v>167.4330325613104</v>
@@ -27558,7 +27558,7 @@
         <v>138.6714930639233</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828207</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593293</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.206074479934</v>
       </c>
       <c r="S4" t="n">
-        <v>214.2931070357591</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5616349313748</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2885958948282</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>30.13865911056953</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27673,13 +27673,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>69.18692684663574</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>174.4005177357733</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>70.53999045278844</v>
+        <v>49.63920985095389</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>44.77430729381484</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>196.1815463767958</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>74.50185933089773</v>
+        <v>19.94229497973953</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>90.50968817472355</v>
+        <v>22.25289239236571</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="24">
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31045,25 +31045,25 @@
         <v>12.73854475336861</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891168009</v>
+        <v>47.95339891168008</v>
       </c>
       <c r="J2" t="n">
         <v>105.5699316744753</v>
       </c>
       <c r="K2" t="n">
-        <v>158.2219613983951</v>
+        <v>158.221961398395</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575827</v>
+        <v>196.2883340575826</v>
       </c>
       <c r="M2" t="n">
-        <v>218.4085923520017</v>
+        <v>218.4085923520016</v>
       </c>
       <c r="N2" t="n">
         <v>221.9426717154103</v>
       </c>
       <c r="O2" t="n">
-        <v>209.5741713476516</v>
+        <v>209.5741713476515</v>
       </c>
       <c r="P2" t="n">
         <v>178.8667065754033</v>
@@ -31072,16 +31072,16 @@
         <v>134.321447551357</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568573</v>
+        <v>78.13378365568572</v>
       </c>
       <c r="S2" t="n">
-        <v>28.34415609104235</v>
+        <v>28.34415609104234</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831062</v>
+        <v>5.444938816831061</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551334</v>
+        <v>0.09950773394551332</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735607</v>
+        <v>0.6655166427735606</v>
       </c>
       <c r="H3" t="n">
-        <v>6.4274896815236</v>
+        <v>6.427489681523599</v>
       </c>
       <c r="I3" t="n">
-        <v>22.91362125338795</v>
+        <v>22.91362125338794</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888277</v>
+        <v>62.87672807888276</v>
       </c>
       <c r="K3" t="n">
         <v>107.4663431447113</v>
@@ -31136,7 +31136,7 @@
         <v>144.5017605285312</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6267388290728</v>
+        <v>168.6267388290727</v>
       </c>
       <c r="N3" t="n">
         <v>173.0897868413569</v>
@@ -31145,22 +31145,22 @@
         <v>158.3433391251638</v>
       </c>
       <c r="P3" t="n">
-        <v>127.0844894433127</v>
+        <v>127.0844894433126</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351628</v>
+        <v>84.95261566351626</v>
       </c>
       <c r="R3" t="n">
-        <v>41.32041050483565</v>
+        <v>41.32041050483564</v>
       </c>
       <c r="S3" t="n">
-        <v>12.36167974625451</v>
+        <v>12.3616797462545</v>
       </c>
       <c r="T3" t="n">
         <v>2.682499099600447</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615533</v>
+        <v>0.04378398965615531</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5579467971483834</v>
+        <v>0.5579467971483832</v>
       </c>
       <c r="H4" t="n">
-        <v>4.960654251010176</v>
+        <v>4.960654251010175</v>
       </c>
       <c r="I4" t="n">
-        <v>16.77898186333503</v>
+        <v>16.77898186333502</v>
       </c>
       <c r="J4" t="n">
         <v>39.4468385583907</v>
       </c>
       <c r="K4" t="n">
-        <v>64.82327334142126</v>
+        <v>64.82327334142124</v>
       </c>
       <c r="L4" t="n">
-        <v>82.95147200513331</v>
+        <v>82.95147200513328</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481431</v>
+        <v>87.46069657481429</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453404</v>
+        <v>85.38107669453402</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511881</v>
+        <v>78.86324365511879</v>
       </c>
       <c r="P4" t="n">
-        <v>67.48112899329172</v>
+        <v>67.4811289932917</v>
       </c>
       <c r="Q4" t="n">
         <v>46.72043589576145</v>
       </c>
       <c r="R4" t="n">
-        <v>25.08731689723549</v>
+        <v>25.08731689723548</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213187</v>
+        <v>9.723491001213185</v>
       </c>
       <c r="T4" t="n">
         <v>2.383954496906728</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03043346166263913</v>
+        <v>0.03043346166263912</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532626</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,31 +34445,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986275</v>
+        <v>93.62064231986274</v>
       </c>
       <c r="K2" t="n">
         <v>262.2775229245792</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380459</v>
+        <v>378.1831336380458</v>
       </c>
       <c r="M2" t="n">
         <v>437.5758926175614</v>
       </c>
       <c r="N2" t="n">
-        <v>429.8765325308036</v>
+        <v>429.8765325308035</v>
       </c>
       <c r="O2" t="n">
         <v>360.2761411887102</v>
@@ -34857,10 +34857,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.5537815155384</v>
+        <v>42.55378151553839</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5414972654495</v>
+        <v>110.5414972654494</v>
       </c>
       <c r="M4" t="n">
         <v>127.0445735366549</v>
@@ -34872,7 +34872,7 @@
         <v>103.4483715691585</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818521</v>
+        <v>64.75968825818519</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>330.4828547768022</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>506.4147744555283</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M6" t="n">
-        <v>231.2425016880003</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>441.0843316816208</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
         <v>233.0438950105733</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312443</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
